--- a/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/B_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/B_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\90_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427DBF3E-5B0D-4022-8669-3D83164E88C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.5062130094527501E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.29559929358395409</v>
+      </c>
+      <c r="C3">
+        <v>0.99915174333037537</v>
+      </c>
+      <c r="D3">
+        <v>0.9998246893495274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3491770020287625E-4</v>
+      </c>
+      <c r="B4">
+        <v>-6.7463401104900624E-5</v>
+      </c>
+      <c r="C4">
+        <v>0.99973019190377288</v>
+      </c>
+      <c r="D4">
+        <v>0.99993254114989849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.4974775476768464E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.65740932714837264</v>
+      </c>
+      <c r="C5">
+        <v>0.99902131708783704</v>
+      </c>
+      <c r="D5">
+        <v>0.99987512612261609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.0639049638075589E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.13575427751337174</v>
+      </c>
+      <c r="C6">
+        <v>0.99869233848303307</v>
+      </c>
+      <c r="D6">
+        <v>0.99969680475180955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7.4129671327569755E-5</v>
+      </c>
+      <c r="B7">
+        <v>0.42853436133145545</v>
+      </c>
+      <c r="C7">
+        <v>0.99979615731359484</v>
+      </c>
+      <c r="D7">
+        <v>0.99996293516433621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.9636757928978046E-5</v>
+      </c>
+      <c r="B8">
+        <v>0.15381633441635559</v>
+      </c>
+      <c r="C8">
+        <v>0.99986988947749023</v>
+      </c>
+      <c r="D8">
+        <v>0.99997018162103557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.4332982902672495E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.20429374950156726</v>
+      </c>
+      <c r="C9">
+        <v>0.99226370838292488</v>
+      </c>
+      <c r="D9">
+        <v>0.9982833508548663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.637465203864418E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.16658478536180613</v>
+      </c>
+      <c r="C10">
+        <v>0.99963980377337736</v>
+      </c>
+      <c r="D10">
+        <v>0.99991812673980685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.058584686774942E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.2718970800582724</v>
+      </c>
+      <c r="C11">
+        <v>0.99748864463649223</v>
+      </c>
+      <c r="D11">
+        <v>0.9994707076566125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4.6070159857904082E-4</v>
+      </c>
+      <c r="B12">
+        <v>0.23834191637099628</v>
+      </c>
+      <c r="C12">
+        <v>0.99893467597025953</v>
+      </c>
+      <c r="D12">
+        <v>0.99976964920071054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0733768728390316E-5</v>
+      </c>
+      <c r="B13">
+        <v>0.33331796609474934</v>
+      </c>
+      <c r="C13">
+        <v>0.99992316758537869</v>
+      </c>
+      <c r="D13">
+        <v>0.99998463311563579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9.9594379255396208E-5</v>
+      </c>
+      <c r="B14">
+        <v>0.29789000588423542</v>
+      </c>
+      <c r="C14">
+        <v>0.99975857906440813</v>
+      </c>
+      <c r="D14">
+        <v>0.99995020281037239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.1320510608935656E-4</v>
+      </c>
+      <c r="B15">
+        <v>0.15994339363259233</v>
+      </c>
+      <c r="C15">
+        <v>0.99975204880707158</v>
+      </c>
+      <c r="D15">
+        <v>0.99994339744695537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.7970528333533006E-5</v>
+      </c>
+      <c r="B16">
+        <v>-8.9853449024640781E-6</v>
+      </c>
+      <c r="C16">
+        <v>0.9999640594277428</v>
+      </c>
+      <c r="D16">
+        <v>0.99999101473583329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.5615410230794848E-5</v>
+      </c>
+      <c r="B17">
+        <v>-1.2807869154808715E-5</v>
+      </c>
+      <c r="C17">
+        <v>0.99994877016376216</v>
+      </c>
+      <c r="D17">
+        <v>0.99998719229488453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.9630245039057278E-4</v>
+      </c>
+      <c r="B18">
+        <v>0.53611461322302967</v>
+      </c>
+      <c r="C18">
+        <v>0.99874954347217482</v>
+      </c>
+      <c r="D18">
+        <v>0.99980184877480471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.2462891698735572E-5</v>
+      </c>
+      <c r="B19">
+        <v>-4.12331459515923E-5</v>
+      </c>
+      <c r="C19">
+        <v>0.99983508441679514</v>
+      </c>
+      <c r="D19">
+        <v>0.99995876855415056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.5712012728719173E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.78321489700911184</v>
+      </c>
+      <c r="C21">
+        <v>0.91205752773621218</v>
+      </c>
+      <c r="D21">
+        <v>0.99214399363564032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6.5807208664351517E-4</v>
+      </c>
+      <c r="B22">
+        <v>0.18594534065857163</v>
+      </c>
+      <c r="C22">
+        <v>0.99853397288785017</v>
+      </c>
+      <c r="D22">
+        <v>0.9996709639566782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.5090478930877933E-3</v>
+      </c>
+      <c r="B23">
+        <v>0.70201433665700386</v>
+      </c>
+      <c r="C23">
+        <v>0.99342906659335506</v>
+      </c>
+      <c r="D23">
+        <v>0.99924547605345604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.1687786576419849E-6</v>
+      </c>
+      <c r="B24">
+        <v>-1.5843918391145152E-6</v>
+      </c>
+      <c r="C24">
+        <v>0.99999366245774635</v>
+      </c>
+      <c r="D24">
+        <v>0.99999841561067115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.8042627815998921E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.85488733768343927</v>
+      </c>
+      <c r="C25">
+        <v>0.98576546160881029</v>
+      </c>
+      <c r="D25">
+        <v>0.99909786860920002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3.716526443799171E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.7293990983736317</v>
+      </c>
+      <c r="C26">
+        <v>0.98256297434842998</v>
+      </c>
+      <c r="D26">
+        <v>0.99814173677810036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.2685964709952715E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.71488152571758812</v>
+      </c>
+      <c r="C27">
+        <v>0.99428364677639458</v>
+      </c>
+      <c r="D27">
+        <v>0.99936570176450235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.4234851078397804E-5</v>
+      </c>
+      <c r="B28">
+        <v>0.92496307359754704</v>
+      </c>
+      <c r="C28">
+        <v>0.99952081269999538</v>
+      </c>
+      <c r="D28">
+        <v>0.99998288257446077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.2935779816513761E-5</v>
+      </c>
+      <c r="B29">
+        <v>-1.1468021422264019E-5</v>
+      </c>
+      <c r="C29">
+        <v>0.99995412922944205</v>
+      </c>
+      <c r="D29">
+        <v>0.99998853211009175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.6644932760728503E-3</v>
+      </c>
+      <c r="B30">
+        <v>0.53754628933919835</v>
+      </c>
+      <c r="C30">
+        <v>0.99158100754177159</v>
+      </c>
+      <c r="D30">
+        <v>0.99866775336196356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5.7846207376478775E-4</v>
+      </c>
+      <c r="B31">
+        <v>0.7778574906395892</v>
+      </c>
+      <c r="C31">
+        <v>0.99682001381588525</v>
+      </c>
+      <c r="D31">
+        <v>0.99971076896311761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.5076484615832026E-4</v>
+      </c>
+      <c r="B32">
+        <v>0.12653512277115572</v>
+      </c>
+      <c r="C32">
+        <v>0.9990333731203509</v>
+      </c>
+      <c r="D32">
+        <v>0.99977461757692088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8.7777630003989888E-4</v>
+      </c>
+      <c r="B33">
+        <v>0.64598913780968015</v>
+      </c>
+      <c r="C33">
+        <v>0.99664347620519411</v>
+      </c>
+      <c r="D33">
+        <v>0.99956111184998009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.3988269794721412E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.8816290945323203</v>
+      </c>
+      <c r="C34">
+        <v>0.95845913610611844</v>
+      </c>
+      <c r="D34">
+        <v>0.99780058651026393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.0776845578685013E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.83810556400336023</v>
+      </c>
+      <c r="C35">
+        <v>0.92277218503683422</v>
+      </c>
+      <c r="D35">
+        <v>0.99461157721065752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7.6816956167304203E-4</v>
+      </c>
+      <c r="B36">
+        <v>0.72067930663649826</v>
+      </c>
+      <c r="C36">
+        <v>0.99648229855082038</v>
+      </c>
+      <c r="D36">
+        <v>0.99961591521916349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.442002442002442E-4</v>
+      </c>
+      <c r="B37">
+        <v>0.45987787226343402</v>
+      </c>
+      <c r="C37">
+        <v>0.99930373896778768</v>
+      </c>
+      <c r="D37">
+        <v>0.99987789987789988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7.4976569821930648E-4</v>
+      </c>
+      <c r="B38">
+        <v>0.74452642868109475</v>
+      </c>
+      <c r="C38">
+        <v>0.99631852843963919</v>
+      </c>
+      <c r="D38">
+        <v>0.99962511715089031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3.5229386850334481E-3</v>
+      </c>
+      <c r="B39">
+        <v>0.58872171865967038</v>
+      </c>
+      <c r="C39">
+        <v>0.98792364522177001</v>
+      </c>
+      <c r="D39">
+        <v>0.99823853065748325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.6548768922763514E-3</v>
+      </c>
+      <c r="B40">
+        <v>0.61261020665335641</v>
+      </c>
+      <c r="C40">
+        <v>0.97978020247129882</v>
+      </c>
+      <c r="D40">
+        <v>0.9971725615538618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.3188405797101448E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.8332173105928764</v>
+      </c>
+      <c r="C41">
+        <v>0.99837783322831342</v>
+      </c>
+      <c r="D41">
+        <v>0.99988405797101454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.2832244008714597E-3</v>
+      </c>
+      <c r="B42">
+        <v>0.19409149007760257</v>
+      </c>
+      <c r="C42">
+        <v>0.99042034457782158</v>
+      </c>
+      <c r="D42">
+        <v>0.99785838779956437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1.9524617996604415E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.78693936917570861</v>
+      </c>
+      <c r="C43">
+        <v>0.99888840406029034</v>
+      </c>
+      <c r="D43">
+        <v>0.99990237691001693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.3162634743813561E-4</v>
+      </c>
+      <c r="B44">
+        <v>9.517227727671998E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.99972291980809558</v>
+      </c>
+      <c r="D44">
+        <v>0.99993418682628088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1.2332022900192827E-4</v>
+      </c>
+      <c r="B45">
+        <v>0.15383511585310772</v>
+      </c>
+      <c r="C45">
+        <v>0.9997309635174173</v>
+      </c>
+      <c r="D45">
+        <v>0.99993833988549907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.0703933747412008E-4</v>
+      </c>
+      <c r="B46">
+        <v>0.41861442490961226</v>
+      </c>
+      <c r="C46">
+        <v>0.99943695930798271</v>
+      </c>
+      <c r="D46">
+        <v>0.99989648033126288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.9691910157026432E-4</v>
+      </c>
+      <c r="B47">
+        <v>0.24393750525760352</v>
+      </c>
+      <c r="C47">
+        <v>0.99884608175936918</v>
+      </c>
+      <c r="D47">
+        <v>0.99975154044921488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.3132084200786491E-4</v>
+      </c>
+      <c r="B48">
+        <v>0.61027391562325606</v>
+      </c>
+      <c r="C48">
+        <v>0.9991751854266312</v>
+      </c>
+      <c r="D48">
+        <v>0.99988433957899603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7.9296183766819139E-5</v>
+      </c>
+      <c r="B49">
+        <v>0.61233281789058769</v>
+      </c>
+      <c r="C49">
+        <v>0.99971623033864065</v>
+      </c>
+      <c r="D49">
+        <v>0.99996035190811661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7.6051410753669475E-5</v>
+      </c>
+      <c r="B50">
+        <v>0.44440641613617188</v>
+      </c>
+      <c r="C50">
+        <v>0.99978707120349053</v>
+      </c>
+      <c r="D50">
+        <v>0.99996197429462319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6.1802787305707487E-5</v>
+      </c>
+      <c r="B51">
+        <v>0.38458448166994758</v>
+      </c>
+      <c r="C51">
+        <v>0.99983777654595218</v>
+      </c>
+      <c r="D51">
+        <v>0.9999690986063472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7.8688229739654373E-5</v>
+      </c>
+      <c r="B52">
+        <v>0.36376412973292138</v>
+      </c>
+      <c r="C52">
+        <v>0.99979767268169395</v>
+      </c>
+      <c r="D52">
+        <v>0.99996065588513017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.2967200610221205E-4</v>
+      </c>
+      <c r="B53">
+        <v>0.31993515781443693</v>
+      </c>
+      <c r="C53">
+        <v>0.9996796688642311</v>
+      </c>
+      <c r="D53">
+        <v>0.99993516399694893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1.1314777098891151E-4</v>
+      </c>
+      <c r="B54">
+        <v>0.82552480310725618</v>
+      </c>
+      <c r="C54">
+        <v>0.99923836155927959</v>
+      </c>
+      <c r="D54">
+        <v>0.99994342611450548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6.9575435233000407E-5</v>
+      </c>
+      <c r="B55">
+        <v>0.79541975181946123</v>
+      </c>
+      <c r="C55">
+        <v>0.99959034068310326</v>
+      </c>
+      <c r="D55">
+        <v>0.99996521228238344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1.3231791584580551E-4</v>
+      </c>
+      <c r="B56">
+        <v>0.66671489257258487</v>
+      </c>
+      <c r="C56">
+        <v>0.99947082465780512</v>
+      </c>
+      <c r="D56">
+        <v>0.99993384104207717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.3013039065143273E-5</v>
+      </c>
+      <c r="B57">
+        <v>-6.5065618676435192E-6</v>
+      </c>
+      <c r="C57">
+        <v>0.99997397417587863</v>
+      </c>
+      <c r="D57">
+        <v>0.99999349348046751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.489002651842818E-4</v>
+      </c>
+      <c r="B58">
+        <v>0.36356190479260309</v>
+      </c>
+      <c r="C58">
+        <v>0.9996171631498556</v>
+      </c>
+      <c r="D58">
+        <v>0.99992554986740789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.6875218361149186E-5</v>
+      </c>
+      <c r="B59">
+        <v>0.19998656216510388</v>
+      </c>
+      <c r="C59">
+        <v>0.999939532045244</v>
+      </c>
+      <c r="D59">
+        <v>0.9999865623908194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.1628702373623367E-4</v>
+      </c>
+      <c r="B60">
+        <v>0.32019824948304898</v>
+      </c>
+      <c r="C60">
+        <v>0.99971273081557366</v>
+      </c>
+      <c r="D60">
+        <v>0.99994185648813183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6.4749029669100719E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.81111679532589109</v>
+      </c>
+      <c r="C61">
+        <v>0.59665282523571683</v>
+      </c>
+      <c r="D61">
+        <v>0.96762548516544966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3.5843244341134256E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.86697331098600428</v>
+      </c>
+      <c r="C62">
+        <v>0.69600967336402686</v>
+      </c>
+      <c r="D62">
+        <v>0.98207837782943286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4.0726343345896053E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.83919600462071842</v>
+      </c>
+      <c r="C63">
+        <v>0.70767220677312592</v>
+      </c>
+      <c r="D63">
+        <v>0.9796368283270519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4.3824531516183984E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.81699672019732628</v>
+      </c>
+      <c r="C64">
+        <v>0.71863324305952581</v>
+      </c>
+      <c r="D64">
+        <v>0.97808773424190798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.7040087240012273E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.8081168948522518</v>
+      </c>
+      <c r="C65">
+        <v>0.7713029062366622</v>
+      </c>
+      <c r="D65">
+        <v>0.98147995637999386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3.8292416803055104E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.84028412717102974</v>
+      </c>
+      <c r="C66">
+        <v>0.72343207985442382</v>
+      </c>
+      <c r="D66">
+        <v>0.9808537915984723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5.1366535715794366E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.8258513008336098</v>
+      </c>
+      <c r="C67">
+        <v>0.65632346636090055</v>
+      </c>
+      <c r="D67">
+        <v>0.9743167321421029</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4.9480672507282587E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.84426235299917773</v>
+      </c>
+      <c r="C68">
+        <v>0.63525694182936987</v>
+      </c>
+      <c r="D68">
+        <v>0.97525966374635886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5.2266456628325353E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.83959180075947482</v>
+      </c>
+      <c r="C69">
+        <v>0.62463587714364932</v>
+      </c>
+      <c r="D69">
+        <v>0.97386677168583735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.7643743574680569E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.82292678461810742</v>
+      </c>
+      <c r="C70">
+        <v>0.68556793754233336</v>
+      </c>
+      <c r="D70">
+        <v>0.9761781282126597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.1400726932641826E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.82068460326442727</v>
+      </c>
+      <c r="C71">
+        <v>0.66459979397206281</v>
+      </c>
+      <c r="D71">
+        <v>0.97429963653367913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.7615184004636337E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.8415981212992738</v>
+      </c>
+      <c r="C72">
+        <v>0.79882447264979994</v>
+      </c>
+      <c r="D72">
+        <v>0.98619240799768182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5.9008672248803823E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.81525011402187919</v>
+      </c>
+      <c r="C73">
+        <v>0.62508286887810272</v>
+      </c>
+      <c r="D73">
+        <v>0.97049566387559794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6.5823020693043299E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.82545566989627517</v>
+      </c>
+      <c r="C74">
+        <v>0.5613991372671141</v>
+      </c>
+      <c r="D74">
+        <v>0.96708848965347838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5.0819846032611984E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.81432460471604085</v>
+      </c>
+      <c r="C75">
+        <v>0.67806701260220403</v>
+      </c>
+      <c r="D75">
+        <v>0.97459007698369393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5.7955486066403016E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.82866965510765089</v>
+      </c>
+      <c r="C76">
+        <v>0.60714375240823149</v>
+      </c>
+      <c r="D76">
+        <v>0.97102225696679845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4.7179249315616678E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.82463582103654309</v>
+      </c>
+      <c r="C77">
+        <v>0.68601798590376162</v>
+      </c>
+      <c r="D77">
+        <v>0.97641037534219177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5.3078988041975111E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.84649074997101481</v>
+      </c>
+      <c r="C78">
+        <v>0.60397705314932038</v>
+      </c>
+      <c r="D78">
+        <v>0.97346050597901246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>9.4562472523540303E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.78642441452064638</v>
+      </c>
+      <c r="C79">
+        <v>0.47162521696562887</v>
+      </c>
+      <c r="D79">
+        <v>0.95271876373822995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>7.1185997910135843E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.83727054442841709</v>
+      </c>
+      <c r="C80">
+        <v>0.49643788040307935</v>
+      </c>
+      <c r="D80">
+        <v>0.96440700104493204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6.4749029669100719E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.81111679532589109</v>
+      </c>
+      <c r="C81">
+        <v>0.59665282523571683</v>
+      </c>
+      <c r="D81">
+        <v>0.96762548516544966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3.5843244341134256E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.86697331098600428</v>
+      </c>
+      <c r="C82">
+        <v>0.69600967336402686</v>
+      </c>
+      <c r="D82">
+        <v>0.98207837782943286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4.0726343345896053E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.83919600462071842</v>
+      </c>
+      <c r="C83">
+        <v>0.70767220677312592</v>
+      </c>
+      <c r="D83">
+        <v>0.9796368283270519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.3824531516183984E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.81699672019732628</v>
+      </c>
+      <c r="C84">
+        <v>0.71863324305952581</v>
+      </c>
+      <c r="D84">
+        <v>0.97808773424190798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3.7040087240012273E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.8081168948522518</v>
+      </c>
+      <c r="C85">
+        <v>0.7713029062366622</v>
+      </c>
+      <c r="D85">
+        <v>0.98147995637999386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3.8292416803055104E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.84028412717102974</v>
+      </c>
+      <c r="C86">
+        <v>0.72343207985442382</v>
+      </c>
+      <c r="D86">
+        <v>0.9808537915984723</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5.1366535715794366E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.8258513008336098</v>
+      </c>
+      <c r="C87">
+        <v>0.65632346636090055</v>
+      </c>
+      <c r="D87">
+        <v>0.9743167321421029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4.9480672507282587E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.84426235299917773</v>
+      </c>
+      <c r="C88">
+        <v>0.63525694182936987</v>
+      </c>
+      <c r="D88">
+        <v>0.97525966374635886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5.2266456628325353E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.83959180075947482</v>
+      </c>
+      <c r="C89">
+        <v>0.62463587714364932</v>
+      </c>
+      <c r="D89">
+        <v>0.97386677168583735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4.7643743574680569E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.82292678461810742</v>
+      </c>
+      <c r="C90">
+        <v>0.68556793754233336</v>
+      </c>
+      <c r="D90">
+        <v>0.9761781282126597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5.1400726932641826E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.82068460326442727</v>
+      </c>
+      <c r="C91">
+        <v>0.66459979397206281</v>
+      </c>
+      <c r="D91">
+        <v>0.97429963653367913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2.7615184004636337E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.8415981212992738</v>
+      </c>
+      <c r="C92">
+        <v>0.79882447264979994</v>
+      </c>
+      <c r="D92">
+        <v>0.98619240799768182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5.9008672248803823E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.81525011402187919</v>
+      </c>
+      <c r="C93">
+        <v>0.62508286887810272</v>
+      </c>
+      <c r="D93">
+        <v>0.97049566387559794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6.5823020693043299E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.82545566989627517</v>
+      </c>
+      <c r="C94">
+        <v>0.5613991372671141</v>
+      </c>
+      <c r="D94">
+        <v>0.96708848965347838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5.0819846032611984E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.81432460471604085</v>
+      </c>
+      <c r="C95">
+        <v>0.67806701260220403</v>
+      </c>
+      <c r="D95">
+        <v>0.97459007698369393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5.7955486066403016E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.82866965510765089</v>
+      </c>
+      <c r="C96">
+        <v>0.60714375240823149</v>
+      </c>
+      <c r="D96">
+        <v>0.97102225696679845</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4.7179249315616678E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.82463582103654309</v>
+      </c>
+      <c r="C97">
+        <v>0.68601798590376162</v>
+      </c>
+      <c r="D97">
+        <v>0.97641037534219177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5.3078988041975111E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.84649074997101481</v>
+      </c>
+      <c r="C98">
+        <v>0.60397705314932038</v>
+      </c>
+      <c r="D98">
+        <v>0.97346050597901246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9.4562472523540303E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.78642441452064638</v>
+      </c>
+      <c r="C99">
+        <v>0.47162521696562887</v>
+      </c>
+      <c r="D99">
+        <v>0.95271876373822995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>7.1185997910135843E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.83727054442841709</v>
+      </c>
+      <c r="C100">
+        <v>0.49643788040307935</v>
+      </c>
+      <c r="D100">
+        <v>0.96440700104493204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2.3217747646300831E-5</v>
+      </c>
+      <c r="B101">
+        <v>0.49998839085663871</v>
+      </c>
+      <c r="C101">
+        <v>0.99993034837425254</v>
+      </c>
+      <c r="D101">
+        <v>0.99998839112617677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3.8481442656015713E-4</v>
+      </c>
+      <c r="B102">
+        <v>0.50454266114237512</v>
+      </c>
+      <c r="C102">
+        <v>0.99883937191379224</v>
+      </c>
+      <c r="D102">
+        <v>0.99980759278671993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.2310804212875776E-3</v>
+      </c>
+      <c r="B103">
+        <v>0.76869326628064805</v>
+      </c>
+      <c r="C103">
+        <v>0.99345230193598721</v>
+      </c>
+      <c r="D103">
+        <v>0.99938445978935619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1.0328349005703716E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.78865158479659359</v>
+      </c>
+      <c r="C104">
+        <v>0.99408581107264393</v>
+      </c>
+      <c r="D104">
+        <v>0.99948358254971481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.2254392888298093E-3</v>
+      </c>
+      <c r="B105">
+        <v>0.92218141420278066</v>
+      </c>
+      <c r="C105">
+        <v>0.98304721687712082</v>
+      </c>
+      <c r="D105">
+        <v>0.99938728035558511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5.5068271387056968E-4</v>
+      </c>
+      <c r="B106">
+        <v>0.84289799513974384</v>
+      </c>
+      <c r="C106">
+        <v>0.99595900786229219</v>
+      </c>
+      <c r="D106">
+        <v>0.9997246586430647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2.9649151704826224E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.69481016509402171</v>
+      </c>
+      <c r="C109">
+        <v>0.9987322127646896</v>
+      </c>
+      <c r="D109">
+        <v>0.99985175424147588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1.4820705610179294E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.91673923432997229</v>
+      </c>
+      <c r="C110">
+        <v>0.9981290478146666</v>
+      </c>
+      <c r="D110">
+        <v>0.99992589647194896</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7.5934756856908545E-6</v>
+      </c>
+      <c r="B111">
+        <v>0.81649348085129281</v>
+      </c>
+      <c r="C111">
+        <v>0.99995443995313815</v>
+      </c>
+      <c r="D111">
+        <v>0.99999620326215721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1.1283723309039764E-3</v>
+      </c>
+      <c r="B112">
+        <v>0.73560958266671017</v>
+      </c>
+      <c r="C112">
+        <v>0.99460828811323221</v>
+      </c>
+      <c r="D112">
+        <v>0.99943581383454794</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3.0217986301179546E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.89497786336663954</v>
+      </c>
+      <c r="C113">
+        <v>0.99685731099565977</v>
+      </c>
+      <c r="D113">
+        <v>0.99984891006849408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5.0916496945010185E-5</v>
+      </c>
+      <c r="B114">
+        <v>0.84809292927603441</v>
+      </c>
+      <c r="C114">
+        <v>0.99963727247743639</v>
+      </c>
+      <c r="D114">
+        <v>0.99997454175152756</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>4.5560162194177411E-5</v>
+      </c>
+      <c r="B115">
+        <v>0.49997721888099139</v>
+      </c>
+      <c r="C115">
+        <v>0.99986332574060266</v>
+      </c>
+      <c r="D115">
+        <v>0.99997721991890287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3.3940141931502619E-5</v>
+      </c>
+      <c r="B116">
+        <v>0.90368077587877349</v>
+      </c>
+      <c r="C116">
+        <v>0.99962980218831132</v>
+      </c>
+      <c r="D116">
+        <v>0.99998302992903432</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9.6932099064605246E-5</v>
+      </c>
+      <c r="B117">
+        <v>0.95429436912633137</v>
+      </c>
+      <c r="C117">
+        <v>0.99779702803640935</v>
+      </c>
+      <c r="D117">
+        <v>0.99995153395046776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5.3366375502993427E-4</v>
+      </c>
+      <c r="B118">
+        <v>0.64317559123850176</v>
+      </c>
+      <c r="C118">
+        <v>0.99797102897504542</v>
+      </c>
+      <c r="D118">
+        <v>0.99973316812248503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4.5956679326431156E-4</v>
+      </c>
+      <c r="B119">
+        <v>0.81396513544739924</v>
+      </c>
+      <c r="C119">
+        <v>0.99708975286349488</v>
+      </c>
+      <c r="D119">
+        <v>0.99977021660336785</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2.531975230048035E-5</v>
+      </c>
+      <c r="B120">
+        <v>0.81648624359322164</v>
+      </c>
+      <c r="C120">
+        <v>0.99984809046145517</v>
+      </c>
+      <c r="D120">
+        <v>0.99998734012384982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>4.5502645502645501E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.86189949266731447</v>
+      </c>
+      <c r="C121">
+        <v>0.96252420968387353</v>
+      </c>
+      <c r="D121">
+        <v>0.99772486772486779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>5.4338719329742671E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.87296242136248003</v>
+      </c>
+      <c r="C122">
+        <v>0.95182531214971144</v>
+      </c>
+      <c r="D122">
+        <v>0.99728306403351297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2.7934722860515617E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.8887470275639392</v>
+      </c>
+      <c r="C123">
+        <v>0.97210806383961335</v>
+      </c>
+      <c r="D123">
+        <v>0.99860326385697429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6.5808850600103091E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.86898698824181153</v>
+      </c>
+      <c r="C124">
+        <v>0.94324586488953122</v>
+      </c>
+      <c r="D124">
+        <v>0.99670955746999501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.0626170300549049E-3</v>
+      </c>
+      <c r="B125">
+        <v>0.8206952750632126</v>
+      </c>
+      <c r="C125">
+        <v>0.97987744129071852</v>
+      </c>
+      <c r="D125">
+        <v>0.99846869148497253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>4.509008214236703E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.893446528488265</v>
+      </c>
+      <c r="C126">
+        <v>0.99532372441359729</v>
+      </c>
+      <c r="D126">
+        <v>0.99977454958928813</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1.8450003915120193E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.86643550670249603</v>
+      </c>
+      <c r="C127">
+        <v>0.98435120915334196</v>
+      </c>
+      <c r="D127">
+        <v>0.99907749980424387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6.5611806321554909E-3</v>
+      </c>
+      <c r="B128">
+        <v>0.86614126137695258</v>
+      </c>
+      <c r="C128">
+        <v>0.94446874989567997</v>
+      </c>
+      <c r="D128">
+        <v>0.99671940968392225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>5.6128019653336973E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.83743110100676788</v>
+      </c>
+      <c r="C129">
+        <v>0.95989757562023481</v>
+      </c>
+      <c r="D129">
+        <v>0.99719359901733307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9.9703222860772801E-3</v>
+      </c>
+      <c r="B130">
+        <v>0.86705227725858658</v>
+      </c>
+      <c r="C130">
+        <v>0.91514967039939266</v>
+      </c>
+      <c r="D130">
+        <v>0.9950148388569614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1.9669017905588715E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.86775090162664748</v>
+      </c>
+      <c r="C131">
+        <v>0.98316847064235624</v>
+      </c>
+      <c r="D131">
+        <v>0.99901654910472071</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>8.986711452900792E-4</v>
+      </c>
+      <c r="B132">
+        <v>0.90858653352549246</v>
+      </c>
+      <c r="C132">
+        <v>0.98928020983888465</v>
+      </c>
+      <c r="D132">
+        <v>0.99955066442735496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2.2925457102672291E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.86061695129252824</v>
+      </c>
+      <c r="C133">
+        <v>0.98126792556590114</v>
+      </c>
+      <c r="D133">
+        <v>0.99885372714486631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6.8969353134212135E-4</v>
+      </c>
+      <c r="B135">
+        <v>0.80046484272395435</v>
+      </c>
+      <c r="C135">
+        <v>0.99585713160029243</v>
+      </c>
+      <c r="D135">
+        <v>0.99965515323432896</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1.8305504019789733E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.87028692685687703</v>
+      </c>
+      <c r="C136">
+        <v>0.98406635768579409</v>
+      </c>
+      <c r="D136">
+        <v>0.99908472479901056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1.402169600963051E-3</v>
+      </c>
+      <c r="B137">
+        <v>0.9036283497336316</v>
+      </c>
+      <c r="C137">
+        <v>0.98406291879781804</v>
+      </c>
+      <c r="D137">
+        <v>0.99929891519951841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>5.1312728481222999E-3</v>
+      </c>
+      <c r="B138">
+        <v>0.92776386163450408</v>
+      </c>
+      <c r="C138">
+        <v>0.9238626771728683</v>
+      </c>
+      <c r="D138">
+        <v>0.99743436357593884</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2.0316969272885744E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.80917460375036832</v>
+      </c>
+      <c r="C139">
+        <v>0.98733104131064009</v>
+      </c>
+      <c r="D139">
+        <v>0.99898415153635578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1.4795008912655973E-3</v>
+      </c>
+      <c r="B140">
+        <v>0.83958758606402695</v>
+      </c>
+      <c r="C140">
+        <v>0.98930223051175148</v>
+      </c>
+      <c r="D140">
+        <v>0.9992602495543671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>4.5904197938901516E-5</v>
+      </c>
+      <c r="B141">
+        <v>0.76468292801485827</v>
+      </c>
+      <c r="C141">
+        <v>0.99975902409862449</v>
+      </c>
+      <c r="D141">
+        <v>0.99997704790103059</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>5.9612913481791563E-5</v>
+      </c>
+      <c r="B142">
+        <v>0.79999080005313894</v>
+      </c>
+      <c r="C142">
+        <v>0.99964236525124861</v>
+      </c>
+      <c r="D142">
+        <v>0.99997019354325911</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6.8140778849102245E-5</v>
+      </c>
+      <c r="B143">
+        <v>0.77776090487729432</v>
+      </c>
+      <c r="C143">
+        <v>0.99962527388917444</v>
+      </c>
+      <c r="D143">
+        <v>0.9999659296105754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2.7665884644327387E-5</v>
+      </c>
+      <c r="B145">
+        <v>0.81480098083912378</v>
+      </c>
+      <c r="C145">
+        <v>0.99982295026322665</v>
+      </c>
+      <c r="D145">
+        <v>0.99998616705767784</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4.7788202685696993E-5</v>
+      </c>
+      <c r="B146">
+        <v>0.81247610285331917</v>
+      </c>
+      <c r="C146">
+        <v>0.99969737614616694</v>
+      </c>
+      <c r="D146">
+        <v>0.99997610589865715</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4.0176777822418639E-5</v>
+      </c>
+      <c r="B147">
+        <v>0.79997990959316911</v>
+      </c>
+      <c r="C147">
+        <v>0.99975896112440743</v>
+      </c>
+      <c r="D147">
+        <v>0.99997991161108879</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2.5388872903302247E-5</v>
+      </c>
+      <c r="B148">
+        <v>0.66665397174675056</v>
+      </c>
+      <c r="C148">
+        <v>0.99989844805365857</v>
+      </c>
+      <c r="D148">
+        <v>0.99998730556354831</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>7.5281930830961951E-5</v>
+      </c>
+      <c r="B150">
+        <v>0.64285714285714268</v>
+      </c>
+      <c r="C150">
+        <v>0.99971395291918208</v>
+      </c>
+      <c r="D150">
+        <v>0.9999623590345843</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3.2641336989163077E-5</v>
+      </c>
+      <c r="B151">
+        <v>0.49999412449029962</v>
+      </c>
+      <c r="C151">
+        <v>0.99990207892969329</v>
+      </c>
+      <c r="D151">
+        <v>0.99998367933150534</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>4.0995367523469845E-5</v>
+      </c>
+      <c r="B152">
+        <v>0.77775727820314378</v>
+      </c>
+      <c r="C152">
+        <v>0.99977454417552025</v>
+      </c>
+      <c r="D152">
+        <v>0.99997950231623833</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4.9995000499950001E-5</v>
+      </c>
+      <c r="B153">
+        <v>0.71997884051689587</v>
+      </c>
+      <c r="C153">
+        <v>0.99977146956041407</v>
+      </c>
+      <c r="D153">
+        <v>0.99997500249975002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>5.8719906048150323E-5</v>
+      </c>
+      <c r="B154">
+        <v>0.85103446404530869</v>
+      </c>
+      <c r="C154">
+        <v>0.99954709903700734</v>
+      </c>
+      <c r="D154">
+        <v>0.99997064004697589</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>4.8959608323133413E-5</v>
+      </c>
+      <c r="B155">
+        <v>0.78568980311325431</v>
+      </c>
+      <c r="C155">
+        <v>0.9997225907176831</v>
+      </c>
+      <c r="D155">
+        <v>0.99997552019583846</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2.0379880981495067E-5</v>
+      </c>
+      <c r="B158">
+        <v>0.33332314323708784</v>
+      </c>
+      <c r="C158">
+        <v>0.99994905118014277</v>
+      </c>
+      <c r="D158">
+        <v>0.99998981005950927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5.2792735719564988E-5</v>
+      </c>
+      <c r="B159">
+        <v>0.74997360084477305</v>
+      </c>
+      <c r="C159">
+        <v>0.99973606140505855</v>
+      </c>
+      <c r="D159">
+        <v>0.99997360363214016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6.3520871143375686E-5</v>
+      </c>
+      <c r="B160">
+        <v>0.74071350842622274</v>
+      </c>
+      <c r="C160">
+        <v>0.99969150361000114</v>
+      </c>
+      <c r="D160">
+        <v>0.99996823956442826</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.1413205593865693E-5</v>
+      </c>
+      <c r="B162">
+        <v>0.82048210865585014</v>
+      </c>
+      <c r="C162">
+        <v>0.99959648981416871</v>
+      </c>
+      <c r="D162">
+        <v>0.99996929339720309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>8.9955022488755624E-5</v>
+      </c>
+      <c r="B163">
+        <v>0.8332883436809535</v>
+      </c>
+      <c r="C163">
+        <v>0.99937046858879419</v>
+      </c>
+      <c r="D163">
+        <v>0.99995502248875567</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>3.0585716470408317E-5</v>
+      </c>
+      <c r="B164">
+        <v>0.73331803959802977</v>
+      </c>
+      <c r="C164">
+        <v>0.99985472535988795</v>
+      </c>
+      <c r="D164">
+        <v>0.99998470714176479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7.5124424828622402E-5</v>
+      </c>
+      <c r="B165">
+        <v>0.82974966353915558</v>
+      </c>
+      <c r="C165">
+        <v>0.99948362262054002</v>
+      </c>
+      <c r="D165">
+        <v>0.99996243778758576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1.9293473018077984E-5</v>
+      </c>
+      <c r="B166">
+        <v>0.49999035307736817</v>
+      </c>
+      <c r="C166">
+        <v>0.99994212069765998</v>
+      </c>
+      <c r="D166">
+        <v>0.99999035326349095</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>5.9892535678839111E-5</v>
+      </c>
+      <c r="B167">
+        <v>0.75859073967164481</v>
+      </c>
+      <c r="C167">
+        <v>0.99969201561550636</v>
+      </c>
+      <c r="D167">
+        <v>0.99997005373216052</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1.8337184142003153E-5</v>
+      </c>
+      <c r="B168">
+        <v>0.66665749782239936</v>
+      </c>
+      <c r="C168">
+        <v>0.9999266531128197</v>
+      </c>
+      <c r="D168">
+        <v>0.99999083140792899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6.3795853269537486E-5</v>
+      </c>
+      <c r="B169">
+        <v>0.82219031857124836</v>
+      </c>
+      <c r="C169">
+        <v>0.99957742092926227</v>
+      </c>
+      <c r="D169">
+        <v>0.99996810207336517</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>9.2233905183545465E-5</v>
+      </c>
+      <c r="B170">
+        <v>0.83112270161575552</v>
+      </c>
+      <c r="C170">
+        <v>0.99936161531308865</v>
+      </c>
+      <c r="D170">
+        <v>0.99995388304740818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>8.156485889279412E-5</v>
+      </c>
+      <c r="B171">
+        <v>0.82535603343951602</v>
+      </c>
+      <c r="C171">
+        <v>0.99945140671394095</v>
+      </c>
+      <c r="D171">
+        <v>0.99995921757055362</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>9.5556617295747726E-5</v>
+      </c>
+      <c r="B172">
+        <v>0.8420574703873478</v>
+      </c>
+      <c r="C172">
+        <v>0.99929944373285529</v>
+      </c>
+      <c r="D172">
+        <v>0.99995222169135212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8.8180593856217537E-5</v>
+      </c>
+      <c r="B173">
+        <v>0.75015393581447931</v>
+      </c>
+      <c r="C173">
+        <v>0.99955916640257503</v>
+      </c>
+      <c r="D173">
+        <v>0.99995590970307191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>5.7565789473684209E-5</v>
+      </c>
+      <c r="B174">
+        <v>0.74071195465017958</v>
+      </c>
+      <c r="C174">
+        <v>0.99972042270142614</v>
+      </c>
+      <c r="D174">
+        <v>0.99997121710526315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1.6576875259013675E-5</v>
+      </c>
+      <c r="B175">
+        <v>0.33332504479265523</v>
+      </c>
+      <c r="C175">
+        <v>0.99995855839578707</v>
+      </c>
+      <c r="D175">
+        <v>0.99999171156237043</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.6522803795531067E-5</v>
+      </c>
+      <c r="B176">
+        <v>0.85290290511134237</v>
+      </c>
+      <c r="C176">
+        <v>0.99940326337083174</v>
+      </c>
+      <c r="D176">
+        <v>0.99996173859810233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6.4828771008573606E-5</v>
+      </c>
+      <c r="B177">
+        <v>0.82975481348305558</v>
+      </c>
+      <c r="C177">
+        <v>0.9995543789326945</v>
+      </c>
+      <c r="D177">
+        <v>0.99996758561449572</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8.2884376295068376E-5</v>
+      </c>
+      <c r="B178">
+        <v>0.85710140292903603</v>
+      </c>
+      <c r="C178">
+        <v>0.99933710017004529</v>
+      </c>
+      <c r="D178">
+        <v>0.9999585578118525</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.42516766083645E-5</v>
+      </c>
+      <c r="B179">
+        <v>0.80765017262413319</v>
+      </c>
+      <c r="C179">
+        <v>0.99947774267299783</v>
+      </c>
+      <c r="D179">
+        <v>0.9999578741616959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>6.1413205593865693E-5</v>
+      </c>
+      <c r="B182">
+        <v>0.82048210865585014</v>
+      </c>
+      <c r="C182">
+        <v>0.99959648981416871</v>
+      </c>
+      <c r="D182">
+        <v>0.99996929339720309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8.9955022488755624E-5</v>
+      </c>
+      <c r="B183">
+        <v>0.8332883436809535</v>
+      </c>
+      <c r="C183">
+        <v>0.99937046858879419</v>
+      </c>
+      <c r="D183">
+        <v>0.99995502248875567</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3.0585716470408317E-5</v>
+      </c>
+      <c r="B184">
+        <v>0.73331803959802977</v>
+      </c>
+      <c r="C184">
+        <v>0.99985472535988795</v>
+      </c>
+      <c r="D184">
+        <v>0.99998470714176479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>7.5124424828622402E-5</v>
+      </c>
+      <c r="B185">
+        <v>0.82974966353915558</v>
+      </c>
+      <c r="C185">
+        <v>0.99948362262054002</v>
+      </c>
+      <c r="D185">
+        <v>0.99996243778758576</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1.9293473018077984E-5</v>
+      </c>
+      <c r="B186">
+        <v>0.49999035307736817</v>
+      </c>
+      <c r="C186">
+        <v>0.99994212069765998</v>
+      </c>
+      <c r="D186">
+        <v>0.99999035326349095</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>5.9892535678839111E-5</v>
+      </c>
+      <c r="B187">
+        <v>0.75859073967164481</v>
+      </c>
+      <c r="C187">
+        <v>0.99969201561550636</v>
+      </c>
+      <c r="D187">
+        <v>0.99997005373216052</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1.8337184142003153E-5</v>
+      </c>
+      <c r="B188">
+        <v>0.66665749782239936</v>
+      </c>
+      <c r="C188">
+        <v>0.9999266531128197</v>
+      </c>
+      <c r="D188">
+        <v>0.99999083140792899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6.3795853269537486E-5</v>
+      </c>
+      <c r="B189">
+        <v>0.82219031857124836</v>
+      </c>
+      <c r="C189">
+        <v>0.99957742092926227</v>
+      </c>
+      <c r="D189">
+        <v>0.99996810207336517</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9.2233905183545465E-5</v>
+      </c>
+      <c r="B190">
+        <v>0.83112270161575552</v>
+      </c>
+      <c r="C190">
+        <v>0.99936161531308865</v>
+      </c>
+      <c r="D190">
+        <v>0.99995388304740818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8.156485889279412E-5</v>
+      </c>
+      <c r="B191">
+        <v>0.82535603343951602</v>
+      </c>
+      <c r="C191">
+        <v>0.99945140671394095</v>
+      </c>
+      <c r="D191">
+        <v>0.99995921757055362</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9.5556617295747726E-5</v>
+      </c>
+      <c r="B192">
+        <v>0.8420574703873478</v>
+      </c>
+      <c r="C192">
+        <v>0.99929944373285529</v>
+      </c>
+      <c r="D192">
+        <v>0.99995222169135212</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8.8180593856217537E-5</v>
+      </c>
+      <c r="B193">
+        <v>0.75015393581447931</v>
+      </c>
+      <c r="C193">
+        <v>0.99955916640257503</v>
+      </c>
+      <c r="D193">
+        <v>0.99995590970307191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>5.7565789473684209E-5</v>
+      </c>
+      <c r="B194">
+        <v>0.74071195465017958</v>
+      </c>
+      <c r="C194">
+        <v>0.99972042270142614</v>
+      </c>
+      <c r="D194">
+        <v>0.99997121710526315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1.6576875259013675E-5</v>
+      </c>
+      <c r="B195">
+        <v>0.33332504479265523</v>
+      </c>
+      <c r="C195">
+        <v>0.99995855839578707</v>
+      </c>
+      <c r="D195">
+        <v>0.99999171156237043</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>7.6522803795531067E-5</v>
+      </c>
+      <c r="B196">
+        <v>0.85290290511134237</v>
+      </c>
+      <c r="C196">
+        <v>0.99940326337083174</v>
+      </c>
+      <c r="D196">
+        <v>0.99996173859810233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>6.4828771008573606E-5</v>
+      </c>
+      <c r="B197">
+        <v>0.82975481348305558</v>
+      </c>
+      <c r="C197">
+        <v>0.9995543789326945</v>
+      </c>
+      <c r="D197">
+        <v>0.99996758561449572</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8.2884376295068376E-5</v>
+      </c>
+      <c r="B198">
+        <v>0.85710140292903603</v>
+      </c>
+      <c r="C198">
+        <v>0.99933710017004529</v>
+      </c>
+      <c r="D198">
+        <v>0.9999585578118525</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8.42516766083645E-5</v>
+      </c>
+      <c r="B199">
+        <v>0.80765017262413319</v>
+      </c>
+      <c r="C199">
+        <v>0.99947774267299783</v>
+      </c>
+      <c r="D199">
+        <v>0.9999578741616959</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4.2621385706492086E-6</v>
+      </c>
+      <c r="B216">
+        <v>-2.1310738267905815E-6</v>
+      </c>
+      <c r="C216">
+        <v>0.99999147575010749</v>
+      </c>
+      <c r="D216">
+        <v>0.99999786893071463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2.9476352596129754E-5</v>
+      </c>
+      <c r="B221">
+        <v>-1.4738393515106856E-5</v>
+      </c>
+      <c r="C221">
+        <v>0.99994104859809074</v>
+      </c>
+      <c r="D221">
+        <v>0.99998526182370195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>9.7507178545730867E-5</v>
+      </c>
+      <c r="B222">
+        <v>0.83974306268594079</v>
+      </c>
+      <c r="C222">
+        <v>0.99929410823234532</v>
+      </c>
+      <c r="D222">
+        <v>0.99995124641072708</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>4.6609722661604977E-4</v>
+      </c>
+      <c r="B223">
+        <v>0.81039249822995307</v>
+      </c>
+      <c r="C223">
+        <v>0.9970759024482545</v>
+      </c>
+      <c r="D223">
+        <v>0.99976695138669192</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>3.0988534242330335E-5</v>
+      </c>
+      <c r="B224">
+        <v>0.83331783762564426</v>
+      </c>
+      <c r="C224">
+        <v>0.99978309850579938</v>
+      </c>
+      <c r="D224">
+        <v>0.99998450573287878</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1.1319879378334492E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.82028390087819714</v>
+      </c>
+      <c r="C225">
+        <v>0.9925705370126352</v>
+      </c>
+      <c r="D225">
+        <v>0.99943400603108312</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>7.1565456940951013E-4</v>
+      </c>
+      <c r="B226">
+        <v>0.81958857632851878</v>
+      </c>
+      <c r="C226">
+        <v>0.99531922330610612</v>
+      </c>
+      <c r="D226">
+        <v>0.99964217271529532</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1.9993602047344849E-4</v>
+      </c>
+      <c r="B227">
+        <v>0.76180475190376173</v>
+      </c>
+      <c r="C227">
+        <v>0.99896072524226665</v>
+      </c>
+      <c r="D227">
+        <v>0.99990003198976329</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>4.3116906287634369E-4</v>
+      </c>
+      <c r="B228">
+        <v>0.81428309853220771</v>
+      </c>
+      <c r="C228">
+        <v>0.99724736997454366</v>
+      </c>
+      <c r="D228">
+        <v>0.99978441546856189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>4.4460965458931916E-4</v>
+      </c>
+      <c r="B229">
+        <v>0.80673946418511555</v>
+      </c>
+      <c r="C229">
+        <v>0.99725501665862626</v>
+      </c>
+      <c r="D229">
+        <v>0.99977769517270543</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>5.1932404781935831E-5</v>
+      </c>
+      <c r="B230">
+        <v>0.86108514005325798</v>
+      </c>
+      <c r="C230">
+        <v>0.99957422688334618</v>
+      </c>
+      <c r="D230">
+        <v>0.99997403379760896</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>5.7922326160618613E-5</v>
+      </c>
+      <c r="B232">
+        <v>0.89282817386362212</v>
+      </c>
+      <c r="C232">
+        <v>0.99940161878004496</v>
+      </c>
+      <c r="D232">
+        <v>0.99997103883691973</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>4.1039110272089302E-5</v>
+      </c>
+      <c r="B233">
+        <v>0.62497947932199682</v>
+      </c>
+      <c r="C233">
+        <v>0.99984953093484152</v>
+      </c>
+      <c r="D233">
+        <v>0.99997948044486384</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>4.8204386599180526E-5</v>
+      </c>
+      <c r="B234">
+        <v>0.80949970428031648</v>
+      </c>
+      <c r="C234">
+        <v>0.99969875693039711</v>
+      </c>
+      <c r="D234">
+        <v>0.99997589780670038</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1.2492792619642513E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.7962484335839598</v>
+      </c>
+      <c r="C235">
+        <v>0.99262089661381581</v>
+      </c>
+      <c r="D235">
+        <v>0.99937536036901786</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3.4728251432540373E-5</v>
+      </c>
+      <c r="B236">
+        <v>0.83331596739835145</v>
+      </c>
+      <c r="C236">
+        <v>0.99975692515494963</v>
+      </c>
+      <c r="D236">
+        <v>0.9999826358742836</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1.0444409629745679E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.68744776922353734</v>
+      </c>
+      <c r="C237">
+        <v>0.9995614015559946</v>
+      </c>
+      <c r="D237">
+        <v>0.9999477779518513</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1.3087687506292158E-4</v>
+      </c>
+      <c r="B238">
+        <v>0.84699335708096646</v>
+      </c>
+      <c r="C238">
+        <v>0.99901377297965854</v>
+      </c>
+      <c r="D238">
+        <v>0.99993456156246852</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>4.2142526023009822E-5</v>
+      </c>
+      <c r="B239">
+        <v>0.76920969604359024</v>
+      </c>
+      <c r="C239">
+        <v>0.99977525831179936</v>
+      </c>
+      <c r="D239">
+        <v>0.99997892873698846</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>6.6067653276955605E-5</v>
+      </c>
+      <c r="B240">
+        <v>0.66663362956600269</v>
+      </c>
+      <c r="C240">
+        <v>0.99973575339403364</v>
+      </c>
+      <c r="D240">
+        <v>0.99996696617336167</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1.8944177822682496E-5</v>
+      </c>
+      <c r="B248">
+        <v>-9.4721786326594407E-6</v>
+      </c>
+      <c r="C248">
+        <v>0.9999621121826775</v>
+      </c>
+      <c r="D248">
+        <v>0.99999052791108878</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1.3177313936327219E-5</v>
+      </c>
+      <c r="B251">
+        <v>-6.5887003788502733E-6</v>
+      </c>
+      <c r="C251">
+        <v>0.99997364563258972</v>
+      </c>
+      <c r="D251">
+        <v>0.99999341134303188</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>4.8704461328657709E-5</v>
+      </c>
+      <c r="B252">
+        <v>0.70104521794829788</v>
+      </c>
+      <c r="C252">
+        <v>0.99979220958535586</v>
+      </c>
+      <c r="D252">
+        <v>0.99997564776933567</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1.8894067262879456E-5</v>
+      </c>
+      <c r="B257">
+        <v>-9.4471228787272802E-6</v>
+      </c>
+      <c r="C257">
+        <v>0.99996221240095307</v>
+      </c>
+      <c r="D257">
+        <v>0.99999055296636852</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>9.4007050528789658E-6</v>
+      </c>
+      <c r="B259">
+        <v>0.33332863294766668</v>
+      </c>
+      <c r="C259">
+        <v>0.99997649842516101</v>
+      </c>
+      <c r="D259">
+        <v>0.99999529964747369</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1.4647091259994486E-4</v>
+      </c>
+      <c r="B322">
+        <v>0.46867675444643581</v>
+      </c>
+      <c r="C322">
+        <v>0.99957787859598812</v>
+      </c>
+      <c r="D322">
+        <v>0.9999267645437</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>5.1648742640054172E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.52628996369439141</v>
+      </c>
+      <c r="C323">
+        <v>0.99983932363494055</v>
+      </c>
+      <c r="D323">
+        <v>0.99997417562867996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>2.7474414451542003E-6</v>
+      </c>
+      <c r="B328">
+        <v>0.70710580981597326</v>
+      </c>
+      <c r="C328">
+        <v>0.99998901027951015</v>
+      </c>
+      <c r="D328">
+        <v>0.99999862627927749</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2.1566996333610624E-4</v>
+      </c>
+      <c r="B331">
+        <v>0.4998921417565485</v>
+      </c>
+      <c r="C331">
+        <v>0.99935312965059098</v>
+      </c>
+      <c r="D331">
+        <v>0.999892165018332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>6.328713372571356E-5</v>
+      </c>
+      <c r="B332">
+        <v>0.49996835443037985</v>
+      </c>
+      <c r="C332">
+        <v>0.99981015061460687</v>
+      </c>
+      <c r="D332">
+        <v>0.9999683564331372</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5204038192543939E-5</v>
+      </c>
+      <c r="B333">
+        <v>-7.6020768874056383E-6</v>
+      </c>
+      <c r="C333">
+        <v>0.99996959227035909</v>
+      </c>
+      <c r="D333">
+        <v>0.99999239798090367</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>4.8309178743961351E-5</v>
+      </c>
+      <c r="B334">
+        <v>0.42854727296098621</v>
+      </c>
+      <c r="C334">
+        <v>0.99986715566582651</v>
+      </c>
+      <c r="D334">
+        <v>0.99997584541062801</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1.94647201946472E-5</v>
+      </c>
+      <c r="B341">
+        <v>-9.7324548170785126E-6</v>
+      </c>
+      <c r="C341">
+        <v>0.99996107112792376</v>
+      </c>
+      <c r="D341">
+        <v>0.99999026763990262</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>3.0498342923367832E-5</v>
+      </c>
+      <c r="B342">
+        <v>0.49998475036344964</v>
+      </c>
+      <c r="C342">
+        <v>0.99990850776167683</v>
+      </c>
+      <c r="D342">
+        <v>0.99998475082853833</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>2.0453662228221962E-5</v>
+      </c>
+      <c r="B343">
+        <v>-1.0226935703255233E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.99995909330307198</v>
+      </c>
+      <c r="D343">
+        <v>0.99998977316888582</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1.2538810604251255E-3</v>
+      </c>
+      <c r="B362">
+        <v>0.87447583938685913</v>
+      </c>
+      <c r="C362">
+        <v>0.98876696569082967</v>
+      </c>
+      <c r="D362">
+        <v>0.99937305946978738</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>5.3896314861227139E-3</v>
+      </c>
+      <c r="B363">
+        <v>0.88388082137282442</v>
+      </c>
+      <c r="C363">
+        <v>0.94822599473759694</v>
+      </c>
+      <c r="D363">
+        <v>0.99730518425693859</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>7.5684260155338846E-4</v>
+      </c>
+      <c r="B364">
+        <v>0.90576286127975869</v>
+      </c>
+      <c r="C364">
+        <v>0.99123616818890581</v>
+      </c>
+      <c r="D364">
+        <v>0.9996215786992233</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1.1153846153846153E-2</v>
+      </c>
+      <c r="B365">
+        <v>0.88273533893635359</v>
+      </c>
+      <c r="C365">
+        <v>0.89385520422419451</v>
+      </c>
+      <c r="D365">
+        <v>0.99442307692307685</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>3.5930186060734361E-3</v>
+      </c>
+      <c r="B366">
+        <v>0.86158327428228643</v>
+      </c>
+      <c r="C366">
+        <v>0.97046211597439491</v>
+      </c>
+      <c r="D366">
+        <v>0.99820349069696324</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>4.4398213923279884E-4</v>
+      </c>
+      <c r="B367">
+        <v>0.76644446419577539</v>
+      </c>
+      <c r="C367">
+        <v>0.99765524467119482</v>
+      </c>
+      <c r="D367">
+        <v>0.9997780089303836</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>3.3960871170173497E-3</v>
+      </c>
+      <c r="B368">
+        <v>0.78130841640205262</v>
+      </c>
+      <c r="C368">
+        <v>0.98108639988878421</v>
+      </c>
+      <c r="D368">
+        <v>0.99830195644149133</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>4.3299068268197634E-4</v>
+      </c>
+      <c r="B369">
+        <v>0.79369959351609232</v>
+      </c>
+      <c r="C369">
+        <v>0.99746859697551316</v>
+      </c>
+      <c r="D369">
+        <v>0.99978350465865906</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>6.4804995876045714E-4</v>
+      </c>
+      <c r="B370">
+        <v>0.76982477132292526</v>
+      </c>
+      <c r="C370">
+        <v>0.99653690649340998</v>
+      </c>
+      <c r="D370">
+        <v>0.99967597502061978</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1.9150084434463188E-4</v>
+      </c>
+      <c r="B371">
+        <v>0.63323755790060254</v>
+      </c>
+      <c r="C371">
+        <v>0.99928639718380152</v>
+      </c>
+      <c r="D371">
+        <v>0.99990424957782775</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1.6314877128581625E-3</v>
+      </c>
+      <c r="B372">
+        <v>0.84917979563241142</v>
+      </c>
+      <c r="C372">
+        <v>0.98755373933484925</v>
+      </c>
+      <c r="D372">
+        <v>0.99918425614357087</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>3.8757484007557992E-3</v>
+      </c>
+      <c r="B373">
+        <v>0.78068443986635039</v>
+      </c>
+      <c r="C373">
+        <v>0.97846752246170798</v>
+      </c>
+      <c r="D373">
+        <v>0.99806212579962206</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2.1116530040469024E-3</v>
+      </c>
+      <c r="B374">
+        <v>0.66778282831857005</v>
+      </c>
+      <c r="C374">
+        <v>0.99153667036319715</v>
+      </c>
+      <c r="D374">
+        <v>0.99894417349797648</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>4.0065462891911532E-4</v>
+      </c>
+      <c r="B375">
+        <v>0.73039313091967584</v>
+      </c>
+      <c r="C375">
+        <v>0.99811343608443281</v>
+      </c>
+      <c r="D375">
+        <v>0.99979967268554049</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>2.554278416347382E-3</v>
+      </c>
+      <c r="B376">
+        <v>0.76890266101937577</v>
+      </c>
+      <c r="C376">
+        <v>0.9863994499320432</v>
+      </c>
+      <c r="D376">
+        <v>0.99872286079182637</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>4.6610885423171008E-3</v>
+      </c>
+      <c r="B377">
+        <v>0.80169104998698282</v>
+      </c>
+      <c r="C377">
+        <v>0.97185693030218501</v>
+      </c>
+      <c r="D377">
+        <v>0.99766945572884147</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>1.5624527102690597E-3</v>
+      </c>
+      <c r="B378">
+        <v>0.7770535638641598</v>
+      </c>
+      <c r="C378">
+        <v>0.99143179080640509</v>
+      </c>
+      <c r="D378">
+        <v>0.99921877364486555</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>2.6187305814469597E-3</v>
+      </c>
+      <c r="B379">
+        <v>0.77392121581771911</v>
+      </c>
+      <c r="C379">
+        <v>0.98580486980793147</v>
+      </c>
+      <c r="D379">
+        <v>0.99869063470927644</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>7.3909830007390983E-5</v>
+      </c>
+      <c r="B380">
+        <v>0.82349244910930874</v>
+      </c>
+      <c r="C380">
+        <v>0.99950736096870263</v>
+      </c>
+      <c r="D380">
+        <v>0.99996304508499634</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1.2538810604251255E-3</v>
+      </c>
+      <c r="B382">
+        <v>0.87447583938685913</v>
+      </c>
+      <c r="C382">
+        <v>0.98876696569082967</v>
+      </c>
+      <c r="D382">
+        <v>0.99937305946978738</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>5.3896314861227139E-3</v>
+      </c>
+      <c r="B383">
+        <v>0.88388082137282442</v>
+      </c>
+      <c r="C383">
+        <v>0.94822599473759694</v>
+      </c>
+      <c r="D383">
+        <v>0.99730518425693859</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>7.5684260155338846E-4</v>
+      </c>
+      <c r="B384">
+        <v>0.90576286127975869</v>
+      </c>
+      <c r="C384">
+        <v>0.99123616818890581</v>
+      </c>
+      <c r="D384">
+        <v>0.9996215786992233</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1.1153846153846153E-2</v>
+      </c>
+      <c r="B385">
+        <v>0.88273533893635359</v>
+      </c>
+      <c r="C385">
+        <v>0.89385520422419451</v>
+      </c>
+      <c r="D385">
+        <v>0.99442307692307685</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>3.5930186060734361E-3</v>
+      </c>
+      <c r="B386">
+        <v>0.86158327428228643</v>
+      </c>
+      <c r="C386">
+        <v>0.97046211597439491</v>
+      </c>
+      <c r="D386">
+        <v>0.99820349069696324</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>4.4398213923279884E-4</v>
+      </c>
+      <c r="B387">
+        <v>0.76644446419577539</v>
+      </c>
+      <c r="C387">
+        <v>0.99765524467119482</v>
+      </c>
+      <c r="D387">
+        <v>0.9997780089303836</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>3.3960871170173497E-3</v>
+      </c>
+      <c r="B388">
+        <v>0.78130841640205262</v>
+      </c>
+      <c r="C388">
+        <v>0.98108639988878421</v>
+      </c>
+      <c r="D388">
+        <v>0.99830195644149133</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>4.3299068268197634E-4</v>
+      </c>
+      <c r="B389">
+        <v>0.79369959351609232</v>
+      </c>
+      <c r="C389">
+        <v>0.99746859697551316</v>
+      </c>
+      <c r="D389">
+        <v>0.99978350465865906</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>6.4804995876045714E-4</v>
+      </c>
+      <c r="B390">
+        <v>0.76982477132292526</v>
+      </c>
+      <c r="C390">
+        <v>0.99653690649340998</v>
+      </c>
+      <c r="D390">
+        <v>0.99967597502061978</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>1.9150084434463188E-4</v>
+      </c>
+      <c r="B391">
+        <v>0.63323755790060254</v>
+      </c>
+      <c r="C391">
+        <v>0.99928639718380152</v>
+      </c>
+      <c r="D391">
+        <v>0.99990424957782775</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>1.6314877128581625E-3</v>
+      </c>
+      <c r="B392">
+        <v>0.84917979563241142</v>
+      </c>
+      <c r="C392">
+        <v>0.98755373933484925</v>
+      </c>
+      <c r="D392">
+        <v>0.99918425614357087</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>3.8757484007557992E-3</v>
+      </c>
+      <c r="B393">
+        <v>0.78068443986635039</v>
+      </c>
+      <c r="C393">
+        <v>0.97846752246170798</v>
+      </c>
+      <c r="D393">
+        <v>0.99806212579962206</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>2.1116530040469024E-3</v>
+      </c>
+      <c r="B394">
+        <v>0.66778282831857005</v>
+      </c>
+      <c r="C394">
+        <v>0.99153667036319715</v>
+      </c>
+      <c r="D394">
+        <v>0.99894417349797648</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>4.0065462891911532E-4</v>
+      </c>
+      <c r="B395">
+        <v>0.73039313091967584</v>
+      </c>
+      <c r="C395">
+        <v>0.99811343608443281</v>
+      </c>
+      <c r="D395">
+        <v>0.99979967268554049</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>2.554278416347382E-3</v>
+      </c>
+      <c r="B396">
+        <v>0.76890266101937577</v>
+      </c>
+      <c r="C396">
+        <v>0.9863994499320432</v>
+      </c>
+      <c r="D396">
+        <v>0.99872286079182637</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>4.6610885423171008E-3</v>
+      </c>
+      <c r="B397">
+        <v>0.80169104998698282</v>
+      </c>
+      <c r="C397">
+        <v>0.97185693030218501</v>
+      </c>
+      <c r="D397">
+        <v>0.99766945572884147</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>1.5624527102690597E-3</v>
+      </c>
+      <c r="B398">
+        <v>0.7770535638641598</v>
+      </c>
+      <c r="C398">
+        <v>0.99143179080640509</v>
+      </c>
+      <c r="D398">
+        <v>0.99921877364486555</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>2.6187305814469597E-3</v>
+      </c>
+      <c r="B399">
+        <v>0.77392121581771911</v>
+      </c>
+      <c r="C399">
+        <v>0.98580486980793147</v>
+      </c>
+      <c r="D399">
+        <v>0.99869063470927644</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>7.3909830007390983E-5</v>
+      </c>
+      <c r="B400">
+        <v>0.82349244910930874</v>
+      </c>
+      <c r="C400">
+        <v>0.99950736096870263</v>
+      </c>
+      <c r="D400">
+        <v>0.99996304508499634</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>